--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB90E9-C4FD-AD4C-A247-6747B75588E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57411DF-E31B-E54E-A1DF-C069EF9490A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="3260" windowWidth="28100" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>${name}</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>[5,26,3,51,81,10,1,1,18,3,10,1,2,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,66,3,52,100,43,3,1,18,3,10,2,2,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,18,3,25,3,2,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,18,3,40,4,2,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,13,3,53,100,18,1,4,5,2,0,1,1,200,0,26,3,54,100,31,1,1,18,3,22,7,2,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,66,3,55,89,84,3,1,18,3,10,10,2,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,18,3,30,11,2,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,18,3,70,15,2,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,3,3,1,0,2,1,-80,5,1,0]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>"循环技能"</t>
+  </si>
+  <si>
+    <t>[3,6,3,41,100,36,0,0,28,3,42,100,100,2,1,9,3,30,2,1,4,0,100,0,150,1,9,3,86,4,1,4,0,100,0,200,0,9,3,43,73,46,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,107 +574,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E055C1F-8A07-9242-A373-CC02569C2EF4}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -670,127 +682,144 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57411DF-E31B-E54E-A1DF-C069EF9490A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D9C6A-303F-8841-8242-14E8F63B9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="3260" windowWidth="28100" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>${name}</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>[3,6,3,41,100,36,0,0,28,3,42,100,100,2,1,9,3,30,2,1,4,0,100,0,150,1,9,3,86,4,1,4,0,100,0,200,0,9,3,43,73,46,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>[2,1,2,23,2,1,1,1,2,1,-1000,15,3,33,100,100,0,3,1,1,0,3,1,0,4,1,0,14,2,1,1,3,2,1,-1000,6,3,34,0,41,0,0]</t>
   </si>
 </sst>
 </file>
@@ -215,10 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +236,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -577,249 +580,259 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -176,10 +176,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>[2,1,2,23,2,1,1,1,2,1,-1000,15,3,33,100,100,0,3,1,1,0,3,1,0,4,1,0,14,2,1,1,3,2,1,-1000,6,3,34,0,41,0,0]</t>
+    <t>"跳跃结束2"</t>
+  </si>
+  <si>
+    <t>[2,1,3,23,2,1,1,1,2,1,-1000,15,3,33,100,100,0,3,1,1,0,3,1,0,4,1,0,14,2,1,1,3,2,1,-1000,6,3,34,0,41,0,0,14,2,1,1,2,2,1,1000,6,3,34,0,51,0,0]</t>
   </si>
 </sst>
 </file>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D9C6A-303F-8841-8242-14E8F63B9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="3260" windowWidth="28100" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView windowWidth="30980" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>${name}</t>
   </si>
@@ -95,16 +86,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>"普通攻击"</t>
-  </si>
-  <si>
-    <t>[6,34,3,11,37,15,2,1,18,3,10,10,2,13,0,0,0,2,2,0,50,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,34,3,12,33,20,2,1,18,3,10,20,2,13,0,0,0,2,1,0,200,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,34,3,13,47,20,2,1,18,3,15,30,2,13,0,0,0,2,2,10,50,200,200,200,0,0,0,2,6,2,1,15,2,10,200,0,25,3,14,70,20,2,2,6,2,10,0,2,10,200,1,9,3,10,40,1,4,0,0,0,200,0,62,3,15,60,30,4,1,18,3,20,50,2,13,0,0,0,2,2,20,50,200,200,200,0,0,0,2,6,2,1,20,2,20,200,1,18,3,25,50,2,13,0,0,0,2,2,30,50,200,200,400,0,0,0,2,6,2,1,25,2,30,400,0,90,3,16,65,50,6,1,18,3,40,40,2,13,0,0,0,2,2,20,50,200,200,500,0,0,0,2,6,2,1,40,2,20,500,1,18,3,45,50,2,13,0,0,0,2,2,25,50,200,200,700,0,0,0,2,6,2,1,48,2,25,700,1,18,3,50,60,2,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,2,6,2,1,50,2,30,1000,0,2,2,1,-73,3,1,0]</t>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>[6,35,4,11,37,15,1,2,1,18,3,10,10,2,13,0,0,0,2,2,0,50,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,35,4,12,33,20,1,2,1,18,3,10,20,2,13,0,0,0,2,1,0,200,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,35,4,13,47,20,1,2,1,18,3,15,30,2,13,0,0,0,2,2,10,50,200,200,200,0,0,0,2,6,2,1,15,2,10,200,0,26,4,14,70,20,1,2,2,6,2,10,0,2,10,200,1,9,3,10,40,1,4,0,0,0,200,0,63,4,15,60,30,1,4,1,18,3,20,50,2,13,0,0,0,2,2,20,50,200,200,200,0,0,0,2,6,2,1,20,2,20,200,1,18,3,25,50,2,13,0,0,0,2,2,30,50,200,200,400,0,0,0,2,6,2,1,25,2,30,400,0,91,4,16,65,50,1,6,1,18,3,40,40,2,13,0,0,0,2,2,20,50,200,200,500,0,0,0,2,6,2,1,40,2,20,500,1,18,3,45,50,2,13,0,0,0,2,2,25,50,200,200,700,0,0,0,2,6,2,1,48,2,25,700,1,18,3,50,60,2,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,2,6,2,1,50,2,30,1000,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>"静止"</t>
+    <t>静止</t>
   </si>
   <si>
     <t>2</t>
@@ -116,101 +107,517 @@
     <t>4</t>
   </si>
   <si>
-    <t>"受伤"</t>
-  </si>
-  <si>
-    <t>[1,6,3,71,100,0,0,0,3,1,1,0,3,1,0,4,1,0]</t>
+    <t>受伤</t>
+  </si>
+  <si>
+    <t>[1,7,4,71,100,0,1,0,0,3,1,1,0,3,1,0,4,1,0]</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>"位移"</t>
-  </si>
-  <si>
-    <t>[1,6,3,61,84,0,0,0,1,2,1,200]</t>
+    <t>位移</t>
+  </si>
+  <si>
+    <t>[1,7,4,61,84,0,1,0,0,1,2,1,400]</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>"跳跃结束"</t>
-  </si>
-  <si>
-    <t>[2,6,3,33,86,0,0,0,6,3,34,63,42,0,0,3,1,1,0,3,1,0,4,1,0]</t>
+    <t>跳跃结束</t>
+  </si>
+  <si>
+    <t>[2,7,4,33,86,0,1,0,0,7,4,34,63,42,1,0,0,3,1,1,0,3,1,0,4,1,0]</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>"跳跃"</t>
-  </si>
-  <si>
-    <t>[2,6,3,31,88,82,0,0,6,3,32,86,72,0,0,0]</t>
+    <t>跳跃</t>
+  </si>
+  <si>
+    <t>[2,7,4,31,88,82,1,0,0,7,4,32,86,72,1,0,0,0]</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>"跑"</t>
+    <t>跑</t>
   </si>
   <si>
     <t>[21]</t>
   </si>
   <si>
-    <t>"技能1"</t>
-  </si>
-  <si>
-    <t>[5,26,3,51,81,10,1,1,18,3,10,1,2,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,66,3,52,100,43,3,1,18,3,10,2,2,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,18,3,25,3,2,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,18,3,40,4,2,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,13,3,53,100,18,1,4,5,2,0,1,1,200,0,26,3,54,100,31,1,1,18,3,22,7,2,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,66,3,55,89,84,3,1,18,3,10,10,2,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,18,3,30,11,2,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,18,3,70,15,2,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,3,3,1,0,2,1,-80,5,1,0]</t>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>[6,27,4,51,81,10,1,1,1,18,3,10,1,2,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,67,4,52,100,43,1,3,1,18,3,10,2,2,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,18,3,25,3,2,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,18,3,40,4,2,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,27,4,54,100,31,1,1,1,18,3,22,7,2,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,67,4,55,89,84,1,3,1,18,3,10,10,2,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,18,3,30,11,2,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,18,3,70,15,2,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>"循环技能"</t>
-  </si>
-  <si>
-    <t>[3,6,3,41,100,36,0,0,28,3,42,100,100,2,1,9,3,30,2,1,4,0,100,0,150,1,9,3,86,4,1,4,0,100,0,200,0,9,3,43,73,46,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+    <t>循环技能</t>
+  </si>
+  <si>
+    <t>[3,7,4,41,100,36,1,0,0,29,4,42,100,100,1,2,1,9,3,30,20,1,4,0,100,0,150,1,9,3,86,40,1,4,0,100,0,200,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>"跳跃结束2"</t>
-  </si>
-  <si>
-    <t>[2,1,3,23,2,1,1,1,2,1,-1000,15,3,33,100,100,0,3,1,1,0,3,1,0,4,1,0,14,2,1,1,3,2,1,-1000,6,3,34,0,41,0,0,14,2,1,1,2,2,1,1000,6,3,34,0,51,0,0]</t>
+    <t>跳跃结束2</t>
+  </si>
+  <si>
+    <t>[2,1,3,24,2,1,1,1,2,1,-1000,16,4,33,100,100,1,0,3,1,1,0,3,1,0,4,1,0,15,2,1,1,3,2,1,-1000,7,4,34,0,41,1,0,0,15,2,1,1,2,2,1,-1000,7,4,34,0,51,1,0,0]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>攻击2</t>
+  </si>
+  <si>
+    <t>[1005]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>攻击1</t>
+  </si>
+  <si>
+    <t>[1004]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>monster0静止</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>monster0跑</t>
+  </si>
+  <si>
+    <t>[61]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>monster0技能1</t>
+  </si>
+  <si>
+    <t>[2,7,4,1004,100,69,1,0,0,27,4,1005,80,62,1,1,1,18,3,9,300,2,13,0,0,0,2,1,0,200,100,100,200,0,0,0,0,4,1,1,0,3,1,0,4,1,0,5,1,0]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>monster0技能2</t>
+  </si>
+  <si>
+    <t>[1,18,4,1006,74,61,1,1,1,9,3,47,200,1,4,0,0,100,200,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>monster0die</t>
+  </si>
+  <si>
+    <t>[1,7,4,1008,100,100,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>monster0buff1</t>
+  </si>
+  <si>
+    <t>[1,40,4,7,90,80,1,3,1,9,3,40,11,1,4,0,0,0,400,1,9,3,50,10,1,4,0,0,0,200,1,9,3,70,12,1,4,0,0,0,600,0,2,3,1,0,2,1,-50]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>playerBuff</t>
+  </si>
+  <si>
+    <t>[1,7,4,6,73,66,1,0,0,2,2,1,-70,3,1,0]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>playerwalk</t>
+  </si>
+  <si>
+    <t>[8]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,13 +625,405 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="56">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,17 +1043,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -303,7 +1146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -336,26 +1179,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,23 +1214,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,278 +1375,457 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E055C1F-8A07-9242-A373-CC02569C2EF4}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="52" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="52" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>${name}</t>
   </si>
@@ -119,7 +119,7 @@
     <t>位移</t>
   </si>
   <si>
-    <t>[1,7,4,61,84,0,1,0,0,1,2,1,400]</t>
+    <t>[1,7,4,61,84,0,1,0,0,1,2,1,150]</t>
   </si>
   <si>
     <t>6</t>
@@ -161,7 +161,7 @@
     <t>循环技能</t>
   </si>
   <si>
-    <t>[3,7,4,41,100,36,1,0,0,29,4,42,100,100,1,2,1,9,3,30,20,1,4,0,100,0,150,1,9,3,86,40,1,4,0,100,0,200,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+    <t>[3,7,4,41,100,36,1,0,0,32,4,42,100,100,1,2,1,9,3,30,20,1,4,0,100,0,150,1,9,3,86,40,1,4,0,100,0,200,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
@@ -242,7 +242,7 @@
     <t>monster0buff1</t>
   </si>
   <si>
-    <t>[1,40,4,7,90,80,1,3,1,9,3,40,11,1,4,0,0,0,400,1,9,3,50,10,1,4,0,0,0,200,1,9,3,70,12,1,4,0,0,0,600,0,2,3,1,0,2,1,-50]</t>
+    <t>[1,7,4,7,90,80,1,0,0,3,3,1,0,2,1,-90,8,1,0]</t>
   </si>
   <si>
     <t>19</t>
@@ -257,7 +257,7 @@
     <t>playerBuff</t>
   </si>
   <si>
-    <t>[1,7,4,6,73,66,1,0,0,2,2,1,-70,3,1,0]</t>
+    <t>[1,7,4,6,100,66,1,0,0,3,2,1,-70,3,1,0,6,1,0]</t>
   </si>
   <si>
     <t>21</t>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>[8]</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>player打地技能</t>
+  </si>
+  <si>
+    <t>[1,7,4,9,86,81,1,0,0,3,1,1,0,3,1,0,4,1,0]</t>
   </si>
 </sst>
 </file>
@@ -873,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1028,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1381,7 +1396,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="$A22:$XFD22"/>
@@ -1390,437 +1405,454 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="55">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="54" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="54" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="54" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="53" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="51" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -89,7 +89,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>[6,35,4,11,37,15,1,2,1,18,3,10,10,2,13,0,0,0,2,2,0,50,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,35,4,12,33,20,1,2,1,18,3,10,20,2,13,0,0,0,2,1,0,200,200,200,200,0,0,0,2,6,2,1,10,2,10,200,0,35,4,13,47,20,1,2,1,18,3,15,30,2,13,0,0,0,2,2,10,50,200,200,200,0,0,0,2,6,2,1,15,2,10,200,0,26,4,14,70,20,1,2,2,6,2,10,0,2,10,200,1,9,3,10,40,1,4,0,0,0,200,0,63,4,15,60,30,1,4,1,18,3,20,50,2,13,0,0,0,2,2,20,50,200,200,200,0,0,0,2,6,2,1,20,2,20,200,1,18,3,25,50,2,13,0,0,0,2,2,30,50,200,200,400,0,0,0,2,6,2,1,25,2,30,400,0,91,4,16,65,50,1,6,1,18,3,40,40,2,13,0,0,0,2,2,20,50,200,200,500,0,0,0,2,6,2,1,40,2,20,500,1,18,3,45,50,2,13,0,0,0,2,2,25,50,200,200,700,0,0,0,2,6,2,1,48,2,25,700,1,18,3,50,60,2,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,2,6,2,1,50,2,30,1000,0,3,3,1,0,1,1,0,4,1,0]</t>
+    <t>[6,28,4,11,37,15,1,1,1,19,4,10,10,2,7,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,28,4,12,33,20,1,1,1,19,4,10,20,2,7,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,28,4,13,47,20,1,1,1,19,4,15,30,2,7,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,19,4,14,70,20,1,1,1,10,4,10,40,1,7,4,0,0,0,200,0,49,4,15,60,30,1,2,1,19,4,20,50,2,7,13,0,0,0,2,2,20,50,200,200,200,0,0,0,1,19,4,25,50,2,7,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,70,4,16,65,50,1,3,1,19,4,40,40,2,7,13,0,0,0,2,2,20,50,200,200,500,0,0,0,1,19,4,45,50,2,7,13,0,0,0,2,2,25,50,200,200,700,0,0,0,1,19,4,50,60,2,7,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>3</t>
@@ -152,7 +152,7 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>[6,27,4,51,81,10,1,1,1,18,3,10,1,2,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,67,4,52,100,43,1,3,1,18,3,10,2,2,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,18,3,25,3,2,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,18,3,40,4,2,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,27,4,54,100,31,1,1,1,18,3,22,7,2,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,67,4,55,89,84,1,3,1,18,3,10,10,2,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,18,3,30,11,2,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,18,3,70,15,2,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
+    <t>[6,28,4,51,81,10,1,1,1,19,4,10,1,2,7,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,70,4,52,100,43,1,3,1,19,4,10,2,2,7,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,19,4,25,3,2,7,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,19,4,40,4,2,7,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,28,4,54,100,31,1,1,1,19,4,22,7,2,7,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,70,4,55,89,84,1,3,1,19,4,10,10,2,7,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,19,4,30,11,2,7,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,19,4,70,15,2,7,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>9</t>
@@ -161,7 +161,7 @@
     <t>循环技能</t>
   </si>
   <si>
-    <t>[3,7,4,41,100,36,1,0,0,32,4,42,100,100,1,2,1,9,3,30,20,1,4,0,100,0,150,1,9,3,86,40,1,4,0,100,0,200,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+    <t>[3,7,4,41,100,36,1,0,0,34,4,42,100,100,1,2,1,10,4,30,20,1,7,4,0,100,0,150,1,10,4,86,40,1,7,4,0,100,0,200,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
@@ -215,7 +215,7 @@
     <t>monster0技能1</t>
   </si>
   <si>
-    <t>[2,7,4,1004,100,69,1,0,0,27,4,1005,80,62,1,1,1,18,3,9,300,2,13,0,0,0,2,1,0,200,100,100,200,0,0,0,0,4,1,1,0,3,1,0,4,1,0,5,1,0]</t>
+    <t>[2,7,4,1004,100,69,1,0,0,28,4,1005,80,62,1,1,1,19,4,9,300,2,7,13,0,0,0,2,1,0,200,100,100,200,0,0,0,0,4,1,1,0,3,1,0,4,1,0,5,1,0]</t>
   </si>
   <si>
     <t>16</t>
@@ -224,7 +224,7 @@
     <t>monster0技能2</t>
   </si>
   <si>
-    <t>[1,18,4,1006,74,61,1,1,1,9,3,47,200,1,4,0,0,100,200,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
+    <t>[1,19,4,1006,74,61,1,1,1,10,4,47,200,1,7,4,0,0,100,200,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
   </si>
   <si>
     <t>17</t>
@@ -272,10 +272,10 @@
     <t>22</t>
   </si>
   <si>
-    <t>player打地技能</t>
-  </si>
-  <si>
-    <t>[1,7,4,9,86,81,1,0,0,3,1,1,0,3,1,0,4,1,0]</t>
+    <t>player锤地</t>
+  </si>
+  <si>
+    <t>[1,32,4,10,40,35,1,2,2,11,7,8,22,0,0,100,1,1,2,0,0,1,10,4,22,50,1,7,4,0,0,100,300,0,2,2,1,-70,3,1,0]</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,12 +422,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -812,10 +806,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
@@ -824,10 +818,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
@@ -836,10 +830,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
@@ -848,10 +842,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
@@ -860,10 +854,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
@@ -872,17 +866,17 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,10 +955,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
@@ -973,10 +967,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
@@ -985,10 +979,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
@@ -997,10 +991,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
@@ -1009,10 +1003,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
@@ -1021,25 +1015,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1399,447 +1381,447 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="50" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="50" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="50" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="50" t="s">

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -275,7 +275,7 @@
     <t>player锤地</t>
   </si>
   <si>
-    <t>[1,32,4,10,40,35,1,2,2,11,7,8,22,0,0,100,1,1,2,0,0,1,10,4,22,50,1,7,4,0,0,100,300,0,2,2,1,-70,3,1,0]</t>
+    <t>[1,53,4,10,40,35,1,5,3,5,2,0,4,1,0,3,5,2,0,5,1,0,2,11,7,8,22,0,0,100,1,1,2,0,0,1,10,4,22,50,1,9,4,0,0,100,300,3,5,2,22,1,1,0,0,2,2,1,-70,3,1,0]</t>
   </si>
 </sst>
 </file>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -89,7 +89,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>[6,28,4,11,37,15,1,1,1,19,4,10,10,2,7,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,28,4,12,33,20,1,1,1,19,4,10,20,2,7,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,28,4,13,47,20,1,1,1,19,4,15,30,2,7,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,19,4,14,70,20,1,1,1,10,4,10,40,1,7,4,0,0,0,200,0,49,4,15,60,30,1,2,1,19,4,20,50,2,7,13,0,0,0,2,2,20,50,200,200,200,0,0,0,1,19,4,25,50,2,7,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,70,4,16,65,50,1,3,1,19,4,40,40,2,7,13,0,0,0,2,2,20,50,200,200,500,0,0,0,1,19,4,45,50,2,7,13,0,0,0,2,2,25,50,200,200,700,0,0,0,1,19,4,50,60,2,7,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,3,3,1,0,1,1,0,4,1,0]</t>
+    <t>[6,30,4,11,37,15,1,1,1,21,5,10,10,2,7,0,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,0,30,4,12,33,20,1,1,1,21,5,10,20,2,7,0,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,0,30,4,13,47,20,1,1,1,21,5,15,30,2,7,0,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,0,21,4,14,70,20,1,1,1,12,5,10,40,1,7,0,4,0,0,0,200,0,0,53,4,15,60,30,1,2,1,21,5,20,50,2,7,0,13,0,0,0,2,2,20,50,200,200,200,0,0,0,0,1,21,5,25,50,2,7,0,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,0,76,4,16,65,50,1,3,1,21,5,40,40,2,7,0,13,0,0,0,2,2,20,50,200,200,500,0,0,0,0,1,21,5,45,50,2,7,0,13,0,0,0,2,2,25,50,200,200,700,0,0,0,0,1,21,5,50,60,2,7,0,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>3</t>
@@ -152,7 +152,7 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>[6,28,4,51,81,10,1,1,1,19,4,10,1,2,7,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,70,4,52,100,43,1,3,1,19,4,10,2,2,7,13,0,50,0,2,2,10,100,200,100,200,0,0,0,1,19,4,25,3,2,7,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,1,19,4,40,4,2,7,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,28,4,54,100,31,1,1,1,19,4,22,7,2,7,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,70,4,55,89,84,1,3,1,19,4,10,10,2,7,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,1,19,4,30,11,2,7,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,1,19,4,70,15,2,7,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
+    <t>[6,30,4,51,81,10,1,1,1,21,5,10,1,2,7,0,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,0,76,4,52,100,43,1,3,1,21,5,10,2,2,7,0,13,0,50,0,2,2,10,100,200,100,200,0,0,0,0,1,21,5,25,3,2,7,0,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,0,1,21,5,40,4,2,7,0,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,30,4,54,100,31,1,1,1,21,5,22,7,2,7,0,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,0,76,4,55,89,84,1,3,1,21,5,10,10,2,7,0,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,0,1,21,5,30,11,2,7,0,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,0,1,21,5,70,15,2,7,0,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>9</t>
@@ -161,7 +161,7 @@
     <t>循环技能</t>
   </si>
   <si>
-    <t>[3,7,4,41,100,36,1,0,0,34,4,42,100,100,1,2,1,10,4,30,20,1,7,4,0,100,0,150,1,10,4,86,40,1,7,4,0,100,0,200,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+    <t>[3,7,4,41,100,36,1,0,0,38,4,42,100,100,1,2,1,12,5,30,20,1,7,0,4,0,100,0,150,0,1,12,5,86,40,1,7,0,4,0,100,0,200,0,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
@@ -215,7 +215,7 @@
     <t>monster0技能1</t>
   </si>
   <si>
-    <t>[2,7,4,1004,100,69,1,0,0,28,4,1005,80,62,1,1,1,19,4,9,300,2,7,13,0,0,0,2,1,0,200,100,100,200,0,0,0,0,4,1,1,0,3,1,0,4,1,0,5,1,0]</t>
+    <t>[2,7,4,1004,100,69,1,0,0,30,4,1005,80,62,1,1,1,21,5,9,300,2,7,0,13,0,0,0,2,1,0,200,100,100,200,0,0,0,0,0,4,1,1,0,3,1,0,4,1,0,5,1,0]</t>
   </si>
   <si>
     <t>16</t>
@@ -224,7 +224,7 @@
     <t>monster0技能2</t>
   </si>
   <si>
-    <t>[1,19,4,1006,74,61,1,1,1,10,4,47,200,1,7,4,0,0,100,200,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
+    <t>[1,21,4,1006,74,61,1,1,1,12,5,47,200,1,7,0,4,0,0,100,200,0,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
   </si>
   <si>
     <t>17</t>
@@ -275,7 +275,7 @@
     <t>player锤地</t>
   </si>
   <si>
-    <t>[1,53,4,10,40,35,1,5,3,5,2,0,4,1,0,3,5,2,0,5,1,0,2,11,7,8,22,0,0,100,1,1,2,0,0,1,10,4,22,50,1,9,4,0,0,100,300,3,5,2,22,1,1,0,0,2,2,1,-70,3,1,0]</t>
+    <t>[2,41,4,9,70,30,1,2,2,11,7,11,23,0,0,100,1,1,2,0,0,1,13,5,23,20,1,9,11,4,0,0,100,300,1,0,2,4,1,0,1,1,0,55,4,10,65,53,1,5,1,12,5,25,50,1,9,0,4,0,0,100,300,0,3,5,2,25,1,1,0,2,11,7,8,25,0,0,100,1,1,2,0,0,3,5,2,25,4,1,0,3,5,2,25,12,1,0,0,2,2,1,-70,3,1,0]</t>
   </si>
 </sst>
 </file>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -92,15 +92,21 @@
     <t>[6,30,4,11,37,15,1,1,1,21,5,10,10,2,7,0,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,0,30,4,12,33,20,1,1,1,21,5,10,20,2,7,0,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,0,30,4,13,47,20,1,1,1,21,5,15,30,2,7,0,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,0,21,4,14,70,20,1,1,1,12,5,10,40,1,7,0,4,0,0,0,200,0,0,53,4,15,60,30,1,2,1,21,5,20,50,2,7,0,13,0,0,0,2,2,20,50,200,200,200,0,0,0,0,1,21,5,25,50,2,7,0,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,0,76,4,16,65,50,1,3,1,21,5,40,40,2,7,0,13,0,0,0,2,2,20,50,200,200,500,0,0,0,0,1,21,5,45,50,2,7,0,13,0,0,0,2,2,25,50,200,200,700,0,0,0,0,1,21,5,50,60,2,7,0,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>[6,30,4,51,81,10,1,1,1,21,5,10,1,2,7,0,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,0,76,4,52,100,43,1,3,1,21,5,10,2,2,7,0,13,0,50,0,2,2,10,100,200,100,200,0,0,0,0,1,21,5,25,3,2,7,0,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,0,1,21,5,40,4,2,7,0,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,30,4,54,100,31,1,1,1,21,5,22,7,2,7,0,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,0,76,4,55,89,84,1,3,1,21,5,10,10,2,7,0,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,0,1,21,5,30,11,2,7,0,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,0,1,21,5,70,15,2,7,0,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,0,7,4,56,97,97,1,0,0,4,3,1,0,5,1,0,1,1,0,4,1,0]</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>静止</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>[1,2,3,4]</t>
   </si>
   <si>
@@ -119,7 +125,7 @@
     <t>位移</t>
   </si>
   <si>
-    <t>[1,7,4,61,84,0,1,0,0,1,2,1,150]</t>
+    <t>[1,7,4,61,84,0,1,0,0,1,2,2,1,150]</t>
   </si>
   <si>
     <t>6</t>
@@ -149,19 +155,13 @@
     <t>[21]</t>
   </si>
   <si>
-    <t>技能1</t>
-  </si>
-  <si>
-    <t>[6,30,4,51,81,10,1,1,1,21,5,10,1,2,7,0,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,0,76,4,52,100,43,1,3,1,21,5,10,2,2,7,0,13,0,50,0,2,2,10,100,200,100,200,0,0,0,0,1,21,5,25,3,2,7,0,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,0,1,21,5,40,4,2,7,0,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,30,4,54,100,31,1,1,1,21,5,22,7,2,7,0,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,0,76,4,55,89,84,1,3,1,21,5,10,10,2,7,0,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,0,1,21,5,30,11,2,7,0,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,0,1,21,5,70,15,2,7,0,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,0,7,4,56,97,97,1,0,0,5,3,1,0,2,1,-80,5,1,0,1,1,0,4,1,0]</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>循环技能</t>
   </si>
   <si>
-    <t>[3,7,4,41,100,36,1,0,0,38,4,42,100,100,1,2,1,12,5,30,20,1,7,0,4,0,100,0,150,0,1,12,5,86,40,1,7,0,4,0,100,0,200,0,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,1,-50,4,1,0]</t>
+    <t>[3,7,4,41,100,36,1,0,0,38,4,42,100,100,1,2,1,12,5,30,20,1,7,0,4,0,100,0,150,0,1,12,5,86,40,1,7,0,4,0,100,0,200,0,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,2,1,-80,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
@@ -224,7 +224,7 @@
     <t>monster0技能2</t>
   </si>
   <si>
-    <t>[1,21,4,1006,74,61,1,1,1,12,5,47,200,1,7,0,4,0,0,100,200,0,0,4,3,1,0,4,1,0,5,1,0,2,1,-5000]</t>
+    <t>[1,21,4,1006,74,61,1,1,1,12,5,47,200,1,7,0,4,0,0,100,200,0,0,4,3,1,0,4,1,0,5,1,0,1,1,0]</t>
   </si>
   <si>
     <t>17</t>
@@ -242,7 +242,7 @@
     <t>monster0buff1</t>
   </si>
   <si>
-    <t>[1,7,4,7,90,80,1,0,0,3,3,1,0,2,1,-90,8,1,0]</t>
+    <t>[1,7,4,7,90,80,1,0,0,3,3,1,0,2,2,1,-80,8,2,1,1000]</t>
   </si>
   <si>
     <t>19</t>
@@ -257,7 +257,7 @@
     <t>playerBuff</t>
   </si>
   <si>
-    <t>[1,7,4,6,100,66,1,0,0,3,2,1,-70,3,1,0,6,1,0]</t>
+    <t>[1,7,4,6,100,66,1,0,0,3,2,2,1,-80,3,1,0,6,2,1,1000]</t>
   </si>
   <si>
     <t>21</t>
@@ -275,7 +275,7 @@
     <t>player锤地</t>
   </si>
   <si>
-    <t>[2,41,4,9,70,30,1,2,2,11,7,11,23,0,0,100,1,1,2,0,0,1,13,5,23,20,1,9,11,4,0,0,100,300,1,0,2,4,1,0,1,1,0,55,4,10,65,53,1,5,1,12,5,25,50,1,9,0,4,0,0,100,300,0,3,5,2,25,1,1,0,2,11,7,8,25,0,0,100,1,1,2,0,0,3,5,2,25,4,1,0,3,5,2,25,12,1,0,0,2,2,1,-70,3,1,0]</t>
+    <t>[2,42,4,9,70,30,1,2,2,11,7,11,23,0,0,100,1,1,2,0,0,1,14,5,23,20,1,9,11,4,0,0,100,300,2,1,1000,2,4,1,0,1,1,0,55,4,10,65,53,1,5,1,12,5,25,50,1,9,0,4,0,0,100,300,0,3,5,2,25,1,1,0,2,11,7,8,25,0,0,100,1,1,2,0,0,3,5,2,25,4,1,0,3,5,2,25,12,1,0,0,2,3,1,0,4,1,0]</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1493,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1504,16 +1504,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="D8" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1521,16 +1521,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1538,16 +1538,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1555,16 +1555,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1572,16 +1572,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="D12" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -1589,13 +1589,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>41</v>
@@ -1612,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>44</v>
@@ -1629,7 +1629,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>47</v>
@@ -1646,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>50</v>
@@ -1663,7 +1663,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>53</v>
@@ -1680,7 +1680,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>56</v>
@@ -1697,7 +1697,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>59</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>73</v>
@@ -1814,7 +1814,7 @@
         <v>78</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="50" t="s">
         <v>79</v>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>${name}</t>
   </si>
@@ -89,7 +89,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>[6,30,4,11,37,15,1,1,1,21,5,10,10,2,7,0,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,0,30,4,12,33,20,1,1,1,21,5,10,20,2,7,0,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,0,30,4,13,47,20,1,1,1,21,5,15,30,2,7,0,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,0,21,4,14,70,20,1,1,1,12,5,10,40,1,7,0,4,0,0,0,200,0,0,53,4,15,60,30,1,2,1,21,5,20,50,2,7,0,13,0,0,0,2,2,20,50,200,200,200,0,0,0,0,1,21,5,25,50,2,7,0,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,0,76,4,16,65,50,1,3,1,21,5,40,40,2,7,0,13,0,0,0,2,2,20,50,200,200,500,0,0,0,0,1,21,5,45,50,2,7,0,13,0,0,0,2,2,25,50,200,200,700,0,0,0,0,1,21,5,50,60,2,7,0,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,0,3,3,1,0,1,1,0,4,1,0]</t>
+    <t>[6,63,4,11,37,15,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,21,8,0,100,0,0,0,33600,5800,18700,2,0,0,1,21,5,10,10,2,7,0,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,3,6,3,23,1,100,1,0,0,63,4,12,33,20,1,4,3,7,3,0,2,17,2,1,-80,2,14,10,22,8,0,107,0,0,0,0,0,35000,2,0,0,1,21,5,10,20,2,7,0,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,3,6,3,17,1,100,1,0,0,63,4,13,47,20,1,4,3,7,3,0,2,27,2,1,-60,2,14,10,23,14,0,100,100,0,0,30160,26130,740,2,0,0,1,21,5,15,30,2,7,0,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,3,6,3,27,1,100,1,0,0,54,4,14,70,20,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,23,5,0,150,100,0,0,2750,0,11200,2,0,0,1,12,5,10,40,1,7,0,4,0,0,0,200,0,3,6,3,23,1,100,1,0,0,102,4,15,60,30,1,6,3,7,3,0,2,32,2,1,-60,1,21,5,20,50,2,7,0,13,0,0,0,2,2,20,50,200,200,200,0,0,0,0,2,14,10,21,20,0,131,88,0,0,29470,0,27000,2,0,0,2,14,10,22,22,0,175,268,0,0,32000,0,27000,2,0,0,1,21,5,25,50,2,7,0,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,3,6,3,32,1,100,1,0,0,149,4,16,65,50,1,9,3,6,3,0,1,25,1,0,3,7,3,25,2,45,2,1,-50,1,21,5,40,40,2,7,0,13,0,0,0,2,2,20,50,200,200,500,0,0,0,0,2,14,10,21,40,0,163,126,0,0,29729,34769,28576,2,0,0,1,21,5,45,50,2,7,0,13,0,0,0,2,2,25,50,200,200,700,0,0,0,0,2,14,10,22,45,0,121,410,0,0,30186,35109,28402,2,0,0,3,6,3,45,1,100,1,0,1,21,5,50,60,2,7,0,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,2,14,10,23,50,0,103,1057,0,0,29080,32977,30208,2,0,0,0,2,3,1,0,4,1,0]</t>
   </si>
   <si>
     <t>2</t>
@@ -248,6 +248,9 @@
     <t>19</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>[6]</t>
   </si>
   <si>
@@ -257,7 +260,7 @@
     <t>playerBuff</t>
   </si>
   <si>
-    <t>[1,7,4,6,100,66,1,0,0,3,2,2,1,-80,3,1,0,6,2,1,1000]</t>
+    <t>[1,16,4,6,80,70,1,1,3,7,3,20,6,0,2,1,1000,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
   <si>
     <t>21</t>
@@ -275,7 +278,43 @@
     <t>player锤地</t>
   </si>
   <si>
-    <t>[2,42,4,9,70,30,1,2,2,11,7,11,23,0,0,100,1,1,2,0,0,1,14,5,23,20,1,9,11,4,0,0,100,300,2,1,1000,2,4,1,0,1,1,0,55,4,10,65,53,1,5,1,12,5,25,50,1,9,0,4,0,0,100,300,0,3,5,2,25,1,1,0,2,11,7,8,25,0,0,100,1,1,2,0,0,3,5,2,25,4,1,0,3,5,2,25,12,1,0,0,2,3,1,0,4,1,0]</t>
+    <t>[2,45,4,9,70,30,1,2,2,14,10,11,23,0,0,100,1,1,0,0,0,2,0,0,1,14,5,23,20,1,9,11,4,0,0,100,300,2,1,1000,2,4,1,0,1,1,0,61,4,10,65,53,1,5,1,12,5,25,50,1,9,0,4,0,0,100,300,0,3,6,3,25,1,100,1,0,2,14,10,8,25,0,0,100,1,1,0,0,0,2,0,0,3,6,3,25,4,100,1,0,3,6,3,25,12,53,1,0,0,2,3,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>playerbuff2</t>
+  </si>
+  <si>
+    <t>[1,14,4,6,80,70,1,1,3,5,3,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>waterbuff</t>
+  </si>
+  <si>
+    <t>[1,16,4,6,80,70,1,1,3,7,3,20,14,0,2,1,1000,0,3,3,1,0,1,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>感电buff</t>
+  </si>
+  <si>
+    <t>[1,16,4,6,80,70,1,1,3,7,3,20,15,0,2,1,100,0,3,3,1,0,1,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>脚底buff</t>
+  </si>
+  <si>
+    <t>[1,16,4,6,80,70,1,1,3,7,3,20,13,0,2,1,100,0,3,3,1,0,1,1,0,4,1,0]</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1778,12 +1817,14 @@
       <c r="B24" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="D24" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -1791,16 +1832,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1808,16 +1849,16 @@
         <v>17</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1825,17 +1866,127 @@
         <v>17</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>${name}</t>
   </si>
@@ -315,6 +315,42 @@
   </si>
   <si>
     <t>[1,16,4,6,80,70,1,1,3,7,3,20,13,0,2,1,100,0,3,3,1,0,1,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>蓝战士普通攻击</t>
+  </si>
+  <si>
+    <t>[2,54,4,11,37,15,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,21,8,0,100,0,0,0,33600,5800,18700,2,0,0,1,12,5,10,10,1,26,0,4,6,105,53,250,0,3,6,3,23,1,100,1,0,0,54,4,12,33,20,1,4,3,7,3,0,2,17,2,1,-80,2,14,10,22,8,0,107,72,0,0,0,0,35000,2,0,0,1,12,5,10,20,1,27,0,4,0,88,59,250,0,3,6,3,17,1,100,1,0,0,2,3,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>蓝战士突刺</t>
+  </si>
+  <si>
+    <t>[1,64,4,17,78,69,1,5,3,6,3,0,1,13,1,0,3,7,3,13,2,23,2,1,300,3,7,3,13,19,0,2,1,1000,3,6,3,23,1,100,1,0,1,21,5,27,200,2,26,0,13,0,70,198,1,1,0,600,200,200,600,0,0,0,0,0,3,5,1,0,3,1,0,4,1,0]</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>陨石</t>
+  </si>
+  <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>魔法石攻击</t>
+  </si>
+  <si>
+    <t>[1,37,4,18,84,73,1,2,2,14,10,28,16,0,0,432,0,0,0,0,0,2,0,0,1,12,5,45,100,1,7,0,4,0,138,432,351,0,0,3,1,1,0,3,1,0,4,1,0]</t>
   </si>
 </sst>
 </file>
@@ -915,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1097,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1417,576 +1459,602 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="52" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="52" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="52" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="A35" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/SkillCfg.xlsx
+++ b/Misc/Excel/SkillCfg.xlsx
@@ -89,7 +89,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>[6,63,4,11,37,15,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,21,8,0,100,0,0,0,33600,5800,18700,2,0,0,1,21,5,10,10,2,7,0,13,0,0,0,2,2,0,50,200,200,200,0,0,0,0,3,6,3,23,1,100,1,0,0,63,4,12,33,20,1,4,3,7,3,0,2,17,2,1,-80,2,14,10,22,8,0,107,0,0,0,0,0,35000,2,0,0,1,21,5,10,20,2,7,0,13,0,0,0,2,1,0,200,200,200,200,0,0,0,0,3,6,3,17,1,100,1,0,0,63,4,13,47,20,1,4,3,7,3,0,2,27,2,1,-60,2,14,10,23,14,0,100,100,0,0,30160,26130,740,2,0,0,1,21,5,15,30,2,7,0,13,0,0,0,2,2,10,50,200,200,200,0,0,0,0,3,6,3,27,1,100,1,0,0,54,4,14,70,20,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,23,5,0,150,100,0,0,2750,0,11200,2,0,0,1,12,5,10,40,1,7,0,4,0,0,0,200,0,3,6,3,23,1,100,1,0,0,102,4,15,60,30,1,6,3,7,3,0,2,32,2,1,-60,1,21,5,20,50,2,7,0,13,0,0,0,2,2,20,50,200,200,200,0,0,0,0,2,14,10,21,20,0,131,88,0,0,29470,0,27000,2,0,0,2,14,10,22,22,0,175,268,0,0,32000,0,27000,2,0,0,1,21,5,25,50,2,7,0,13,0,0,0,2,2,30,50,200,200,400,0,0,0,0,3,6,3,32,1,100,1,0,0,149,4,16,65,50,1,9,3,6,3,0,1,25,1,0,3,7,3,25,2,45,2,1,-50,1,21,5,40,40,2,7,0,13,0,0,0,2,2,20,50,200,200,500,0,0,0,0,2,14,10,21,40,0,163,126,0,0,29729,34769,28576,2,0,0,1,21,5,45,50,2,7,0,13,0,0,0,2,2,25,50,200,200,700,0,0,0,0,2,14,10,22,45,0,121,410,0,0,30186,35109,28402,2,0,0,3,6,3,45,1,100,1,0,1,21,5,50,60,2,7,0,13,0,0,0,2,2,30,50,200,200,1000,0,0,0,0,2,14,10,23,50,0,103,1057,0,0,29080,32977,30208,2,0,0,0,2,3,1,0,4,1,0]</t>
+    <t>[6,54,4,11,37,15,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,23,8,0,100,0,0,0,33600,5800,18700,2,0,0,1,12,5,10,10,1,33,0,4,7,0,51,246,0,3,6,3,23,1,100,1,0,0,54,4,12,33,20,1,4,3,7,3,0,2,17,2,1,-80,2,14,10,23,8,0,107,0,0,0,0,0,35000,2,0,0,1,12,5,10,20,1,33,0,4,16,0,41,253,0,3,6,3,17,1,100,1,0,0,54,4,13,47,20,1,4,3,7,3,0,2,27,2,1,-60,2,14,10,23,14,0,100,100,0,0,30160,26130,740,2,0,0,1,12,5,15,30,1,33,0,4,0,122,117,228,0,3,6,3,27,1,100,1,0,0,54,4,14,70,20,1,4,3,7,3,0,2,23,2,1,-80,2,14,10,23,5,0,150,100,0,0,2750,0,11200,2,0,0,1,12,5,10,40,1,33,0,4,0,168,54,245,0,3,6,3,23,1,100,1,0,0,84,4,15,60,30,1,6,3,7,3,0,2,32,2,1,-60,1,12,5,20,50,1,33,0,4,0,147,99,196,0,2,14,10,23,20,0,131,88,0,0,29470,0,27000,2,0,0,2,14,10,22,22,0,175,268,0,0,32000,0,27000,2,0,0,1,12,5,25,50,1,33,0,4,0,173,299,247,0,3,6,3,32,1,100,1,0,0,122,4,16,65,50,1,9,3,6,3,0,1,25,1,0,3,7,3,25,2,45,2,1,-50,1,12,5,40,40,1,33,0,4,0,149,145,222,0,2,14,10,23,40,0,163,126,0,0,29729,34769,28576,2,0,0,1,12,5,45,50,1,33,0,4,0,138,549,238,0,2,14,10,23,45,0,121,410,0,0,30186,35109,28402,2,0,0,3,6,3,45,1,100,1,0,1,12,5,50,60,1,33,0,4,0,172,1054,308,0,2,14,10,23,50,0,103,1057,0,0,29080,32977,30208,2,0,0,0,2,3,1,0,4,1,0]</t>
   </si>
   <si>
     <t>2</t>
@@ -98,7 +98,7 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>[6,30,4,51,81,10,1,1,1,21,5,10,1,2,7,0,13,0,100,0,2,2,10,100,200,50,200,0,0,4500,0,0,76,4,52,100,43,1,3,1,21,5,10,2,2,7,0,13,0,50,0,2,2,10,100,200,100,200,0,0,0,0,1,21,5,25,3,2,7,0,13,0,100,0,2,2,10,100,200,100,300,0,0,6000,0,1,21,5,40,4,2,7,0,13,0,100,0,2,2,10,100,200,100,400,0,0,13500,0,0,14,4,53,100,18,1,1,4,5,2,0,1,1,200,0,30,4,54,100,31,1,1,1,21,5,22,7,2,7,0,13,0,100,0,2,2,20,100,200,100,500,4500,0,4500,0,0,76,4,55,89,84,1,3,1,21,5,10,10,2,7,0,13,0,100,0,2,2,10,100,200,100,600,4500,0,4500,0,1,21,5,30,11,2,7,0,13,0,100,0,2,2,10,100,300,100,600,4500,0,15000,0,1,21,5,70,15,2,7,0,13,0,100,0,2,2,10,100,400,200,700,3000,0,0,0,0,7,4,56,97,97,1,0,0,4,3,1,0,5,1,0,1,1,0,4,1,0]</t>
+    <t>[5,49,4,51,81,10,1,2,2,14,10,23,12,-16,108,75,0,0,410,592,22370,2,0,0,1,21,5,13,10,2,33,0,13,0,100,138,1,1,0,424,459,100,424,0,0,4500,0,1,1,1,0,141,4,52,100,43,1,8,3,7,3,0,2,47,2,1,-80,2,14,10,23,14,0,74,0,0,0,348,4968,18195,2,0,0,1,21,5,17,15,2,33,0,13,0,71,98,1,1,0,363,517,60,363,0,0,0,0,2,14,10,23,24,0,123,70,0,0,35860,1105,5317,2,0,0,1,21,5,25,15,2,33,0,13,0,100,144,1,1,0,400,407,93,400,0,0,4048,0,2,14,10,23,33,0,104,72,0,0,35405,34566,31098,2,0,0,1,21,5,36,15,2,33,0,13,0,100,177,1,1,0,427,458,100,427,0,0,14038,0,3,6,3,47,1,100,1,0,0,18,4,53,100,18,1,1,4,5,2,0,1,1,200,1,2,2,1,-60,50,4,54,100,31,1,2,2,14,10,23,29,0,21,215,0,0,2690,1459,21910,2,0,0,1,21,5,32,30,2,33,0,13,0,-102,284,1,1,0,932,410,200,932,3964,35935,1782,0,1,2,2,1,-60,128,4,55,89,84,1,6,2,14,10,23,14,0,14,215,0,0,2562,1684,22417,2,0,0,1,21,5,15,25,2,33,0,13,0,-74,333,1,1,0,932,410,200,932,3857,217,34240,0,2,14,10,23,31,0,-2,239,0,0,3343,34095,33188,2,0,0,1,21,5,34,25,2,33,0,13,0,-74,333,1,1,0,932,410,200,932,3884,263,1945,0,2,14,10,23,69,0,-31,291,0,0,4211,32109,35518,2,0,0,1,21,5,71,25,2,33,0,13,0,-74,333,1,1,0,932,410,200,932,3884,263,1945,0,1,2,2,1,-60,3,3,1,0,5,1,0,4,1,0]</t>
   </si>
   <si>
     <t>3</t>
@@ -161,7 +161,7 @@
     <t>循环技能</t>
   </si>
   <si>
-    <t>[3,7,4,41,100,36,1,0,0,38,4,42,100,100,1,2,1,12,5,30,20,1,7,0,4,0,100,0,150,0,1,12,5,86,40,1,7,0,4,0,100,0,200,0,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,2,1,-80,4,1,0]</t>
+    <t>[3,7,4,41,100,36,1,0,0,38,4,42,100,100,1,2,1,12,5,30,20,1,7,0,4,0,100,0,200,0,1,12,5,86,40,1,7,0,4,0,100,0,200,0,1,10,1,0,10,4,43,73,46,1,0,1,1,1,0,2,2,2,1,-80,4,1,0]</t>
   </si>
   <si>
     <t>10</t>
